--- a/Colecciones/Duel Decks Anthology Divine vs. Demonic (DVD).xlsx
+++ b/Colecciones/Duel Decks Anthology Divine vs. Demonic (DVD).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,28 +437,441 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Duel</t>
+          <t>Duel Decks Anthology Divine vs. Demonic (DVD)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elemental</t>
+          <t>Aethersnipe</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elf Warrior</t>
+          <t>Air Elemental</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Goblin</t>
+          <t>Ancestral Vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bottle Gnomes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brine Elemental</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chandra Nalaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chartooth Cougar</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Condescend</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cone of Flame</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Counterspell</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Daze</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Demonfire</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Errant Ephemeron</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fact or Fiction</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fathom Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fireball</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fireblast</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Firebolt</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fireslinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Flame Javelin</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Flamekin Brawler</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Flametongue Kavu</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Flamewave Invoker</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fledgling Mawcor</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Furnace Whelp</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guile</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Gush</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hostility</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Incinerate</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ingot Chewer</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Inner-Flame Acolyte</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jace Beleren</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Keldon Megaliths</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Magma Jet</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Man-o'-War</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Martyr of Frost</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mind Stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mulldrifter</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ophidian</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oxidda Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Pyre Charger</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Quicksilver Dragon</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rakdos Pit Dragon</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Repulse</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Riftwing Cloudskate</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Seal of Fire</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Slith Firewalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Soulbright Flamekin</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Spire Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Terrain Generator</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Voidmage Apprentice</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Wall of Deceit</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Waterspout Djinn</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Willbender</t>
         </is>
       </c>
     </row>
